--- a/doc/info.xlsx
+++ b/doc/info.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guoxiaoqiang\PycharmProjects\Work\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{930F2A81-D2AA-417E-8C86-2081EE0DC26D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F78B500-479D-411C-965B-15D3933F7F3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="4" xr2:uid="{05683452-B0E2-482B-8AFE-F13A63B63A05}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="3" xr2:uid="{05683452-B0E2-482B-8AFE-F13A63B63A05}"/>
   </bookViews>
   <sheets>
     <sheet name="deploy_plan" sheetId="1" r:id="rId1"/>
     <sheet name="level_info" sheetId="4" r:id="rId2"/>
     <sheet name="links" sheetId="3" r:id="rId3"/>
-    <sheet name="SQL" sheetId="2" r:id="rId4"/>
+    <sheet name="others" sheetId="2" r:id="rId4"/>
     <sheet name="BCA_data" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,39 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="208">
-  <si>
-    <t>select top 10 cp.ConsultantNumber,cp.ContactID,cp.SubsidiaryID
-from ConsultantProfile cp (nolock)
-inner join ConsultantCareerLevel ccl (nolock)
-on cp.ContactID = ccl.ConsultantID
-inner join (select DIQID,du.BeginDate from DIQUnits du (nolock)
-where du.Status = 1 -- Active
-group by du.DIQID,du.BeginDate) diqUnits
-on cp.ContactID = diqUnits.DIQID
-where ccl.LevelID = 300 and ccl.Date = '2016-10-01'
-and diqUnits.BeginDate &lt; '2016-10-01'</t>
-  </si>
-  <si>
-    <t>查询DIQ</t>
-  </si>
-  <si>
-    <t>查询DIR</t>
-  </si>
-  <si>
-    <t>SELECT top 10 cp.ConsultantNumber,cp.ContactID,ccl.LevelID,dtsd.SeniorDirectorID
-FROM ConsultantCareerLevel ccl (nolock)
-inner join ConsultantProfile cp (nolock)
-on ccl.ConsultantID = cp.ContactID
-inner join DirectorUnits du WITH (NOLOCK)
-on ccl.ConsultantID = du.DirectorID
-inner join DirectorToSeniorDirector dtsd (nolock)
-on du.DirectorID = dtsd.DirectorID and dtsd.Date = ccl.Date
-WHERE ccl.Date = '2016-10-01' AND ccl.LevelID between 400 and 499
-AND du.DebutDate &lt; '2016-10-01'
-AND (du.TerminationDate &gt;= '2016-10-01'
-OR du.TerminationDate IS NULL)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="213">
   <si>
     <t>Month</t>
   </si>
@@ -1034,6 +1002,33 @@
   </si>
   <si>
     <t>Job Type: CCM ; Job Category: CCM ShouDaoRegUser Process Sync; Job Run Time:为当日之前的日期</t>
+  </si>
+  <si>
+    <t>00030$00030bB</t>
+  </si>
+  <si>
+    <t>7426983826Tao!</t>
+  </si>
+  <si>
+    <t>foapp Dlguc65o</t>
+  </si>
+  <si>
+    <t>foapp Blguw62o</t>
+  </si>
+  <si>
+    <t>foapp Twf45w62o</t>
+  </si>
+  <si>
+    <t>oaWQ6uNaAlegV6M2siw7Ja56wGJ0</t>
+  </si>
+  <si>
+    <t>UAT:CHG0045109</t>
+  </si>
+  <si>
+    <t>PROD:CHG0045111</t>
+  </si>
+  <si>
+    <t>BC: 000000000063 (ywms_2019/职级90)</t>
   </si>
 </sst>
 </file>
@@ -1231,13 +1226,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1283,16 +1275,16 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1636,715 +1628,627 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="6" t="s">
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="17">
+        <v>202103</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="C2" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="D2" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="E2" s="19" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="20">
+      <c r="F2" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A3" s="18"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="17">
         <v>202103</v>
       </c>
-      <c r="B2" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="18" t="s">
+      <c r="B4" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="C4" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="D4" s="19" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A3" s="21"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="8" t="s">
+      <c r="E4" s="19" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="20">
+      <c r="F4" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A5" s="18"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="17">
         <v>202103</v>
       </c>
-      <c r="B4" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="18" t="s">
+      <c r="B6" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="C6" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="7" t="s">
+    </row>
+    <row r="7" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A7" s="18"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A5" s="21"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="8" t="s">
+    <row r="8" spans="1:6">
+      <c r="A8" s="17">
+        <v>202103</v>
+      </c>
+      <c r="B8" s="19" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="20">
-        <v>202103</v>
-      </c>
-      <c r="B6" s="18" t="s">
+      <c r="C8" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="7" t="s">
+    </row>
+    <row r="9" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A9" s="18"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A7" s="21"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="8" t="s">
+    <row r="10" spans="1:6">
+      <c r="A10" s="21">
+        <v>202104</v>
+      </c>
+      <c r="B10" s="23" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="20">
-        <v>202103</v>
-      </c>
-      <c r="B8" s="18" t="s">
+      <c r="C10" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="7" t="s">
+      <c r="D10" s="23" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A9" s="21"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="8" t="s">
+      <c r="E10" s="23" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="22">
+      <c r="F10" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A11" s="22"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="21">
         <v>202104</v>
       </c>
-      <c r="B10" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="24" t="s">
+      <c r="B12" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="24" t="s">
+      <c r="C12" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="D12" s="23" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A11" s="23"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="10" t="s">
+      <c r="E12" s="23" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="22">
+      <c r="F12" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A13" s="22"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="21">
         <v>202104</v>
       </c>
-      <c r="B12" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="24" t="s">
+      <c r="B14" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="24" t="s">
+      <c r="C14" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="11" t="s">
+    </row>
+    <row r="15" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A15" s="22"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="11" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A13" s="23"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="10" t="s">
+    <row r="16" spans="1:6">
+      <c r="A16" s="21">
+        <v>202104</v>
+      </c>
+      <c r="B16" s="23" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="22">
-        <v>202104</v>
-      </c>
-      <c r="B14" s="24" t="s">
+      <c r="C16" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="F14" s="11" t="s">
+    </row>
+    <row r="17" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A17" s="22"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="9" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A15" s="23"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="12" t="s">
+    <row r="18" spans="1:6">
+      <c r="A18" s="17">
+        <v>202105</v>
+      </c>
+      <c r="B18" s="19" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="22">
-        <v>202104</v>
-      </c>
-      <c r="B16" s="24" t="s">
+      <c r="C18" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="E16" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="F16" s="11" t="s">
+      <c r="D18" s="19" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A17" s="23"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="10" t="s">
+      <c r="E18" s="19" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="20">
+      <c r="F18" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A19" s="18"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="17">
         <v>202105</v>
       </c>
-      <c r="B18" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="D18" s="18" t="s">
+      <c r="B20" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="E18" s="18" t="s">
+      <c r="C20" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="D20" s="19" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A19" s="21"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="8" t="s">
+      <c r="E20" s="19" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="20">
+      <c r="F20" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A21" s="18"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="17">
         <v>202105</v>
       </c>
-      <c r="B20" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="C20" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="D20" s="18" t="s">
+      <c r="B22" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="E20" s="18" t="s">
+      <c r="C22" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="F22" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F20" s="7" t="s">
+    </row>
+    <row r="23" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A23" s="18"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="7" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A21" s="21"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="8" t="s">
+    <row r="24" spans="1:6">
+      <c r="A24" s="17">
+        <v>202105</v>
+      </c>
+      <c r="B24" s="19" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="20">
-        <v>202105</v>
-      </c>
-      <c r="B22" s="18" t="s">
+      <c r="C24" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="F24" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C22" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="D22" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="E22" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="F22" s="7" t="s">
+    </row>
+    <row r="25" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A25" s="18"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="7" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A23" s="21"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="8" t="s">
+    <row r="26" spans="1:6">
+      <c r="A26" s="21">
+        <v>202106</v>
+      </c>
+      <c r="B26" s="23" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="20">
-        <v>202105</v>
-      </c>
-      <c r="B24" s="18" t="s">
+      <c r="C26" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="C24" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="D24" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="E24" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="F24" s="7" t="s">
+      <c r="D26" s="23" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A25" s="21"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="8" t="s">
+      <c r="E26" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="F26" s="8" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="22">
+    <row r="27" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A27" s="22"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="21">
         <v>202106</v>
       </c>
-      <c r="B26" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="C26" s="24" t="s">
+      <c r="B28" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="D26" s="24" t="s">
+      <c r="C28" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="E26" s="24" t="s">
+      <c r="D28" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="E28" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A29" s="22"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15" customHeight="1">
+      <c r="A30" s="21">
+        <v>202106</v>
+      </c>
+      <c r="B30" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="D30" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="E30" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A31" s="22"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15" customHeight="1">
+      <c r="A32" s="21">
+        <v>202106</v>
+      </c>
+      <c r="B32" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="C32" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="D32" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="E32" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A33" s="22"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15" customHeight="1">
+      <c r="A34" s="17">
+        <v>202107</v>
+      </c>
+      <c r="B34" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="D34" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="F26" s="9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A27" s="23"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="22">
-        <v>202106</v>
-      </c>
-      <c r="B28" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="C28" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="D28" s="24" t="s">
+      <c r="E34" s="19" t="s">
         <v>160</v>
       </c>
-      <c r="E28" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="F28" s="11" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A29" s="23"/>
-      <c r="B29" s="25"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="10" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="15" customHeight="1">
-      <c r="A30" s="22">
-        <v>202106</v>
-      </c>
-      <c r="B30" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="C30" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="D30" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="E30" s="24" t="s">
+      <c r="F34" s="6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A35" s="18"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="15" customHeight="1">
+      <c r="A36" s="17">
+        <v>202107</v>
+      </c>
+      <c r="B36" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="D36" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="E36" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A37" s="18"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="7" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="18" customHeight="1">
+      <c r="A38" s="17">
+        <v>202107</v>
+      </c>
+      <c r="B38" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="C38" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="D38" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="F30" s="11" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A31" s="23"/>
-      <c r="B31" s="25"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="12" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1">
-      <c r="A32" s="22">
-        <v>202106</v>
-      </c>
-      <c r="B32" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="C32" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="D32" s="24" t="s">
+      <c r="E38" s="19" t="s">
         <v>160</v>
       </c>
-      <c r="E32" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="F32" s="11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A33" s="23"/>
-      <c r="B33" s="25"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="10" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1">
-      <c r="A34" s="20">
+      <c r="F38" s="6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A39" s="18"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="18" customHeight="1">
+      <c r="A40" s="17">
         <v>202107</v>
       </c>
-      <c r="B34" s="18" t="s">
-        <v>161</v>
-      </c>
-      <c r="C34" s="18" t="s">
-        <v>162</v>
-      </c>
-      <c r="D34" s="18" t="s">
-        <v>163</v>
-      </c>
-      <c r="E34" s="18" t="s">
+      <c r="B40" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="C40" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="D40" s="19" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A35" s="21"/>
-      <c r="B35" s="19"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="8" t="s">
+      <c r="E40" s="19" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1">
-      <c r="A36" s="20">
-        <v>202107</v>
-      </c>
-      <c r="B36" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="C36" s="18" t="s">
-        <v>168</v>
-      </c>
-      <c r="D36" s="18" t="s">
-        <v>169</v>
-      </c>
-      <c r="E36" s="18" t="s">
-        <v>170</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A37" s="21"/>
-      <c r="B37" s="19"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="8" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="18" customHeight="1">
-      <c r="A38" s="20">
-        <v>202107</v>
-      </c>
-      <c r="B38" s="18" t="s">
-        <v>173</v>
-      </c>
-      <c r="C38" s="18" t="s">
+      <c r="F40" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="D38" s="18" t="s">
-        <v>163</v>
-      </c>
-      <c r="E38" s="18" t="s">
-        <v>164</v>
-      </c>
-      <c r="F38" s="7" t="s">
+    </row>
+    <row r="41" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A41" s="18"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="7" t="s">
         <v>175</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A39" s="21"/>
-      <c r="B39" s="19"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="8" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="18" customHeight="1">
-      <c r="A40" s="20">
-        <v>202107</v>
-      </c>
-      <c r="B40" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="C40" s="18" t="s">
-        <v>168</v>
-      </c>
-      <c r="D40" s="18" t="s">
-        <v>169</v>
-      </c>
-      <c r="E40" s="18" t="s">
-        <v>170</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A41" s="21"/>
-      <c r="B41" s="19"/>
-      <c r="C41" s="19"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="8" t="s">
-        <v>179</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="100">
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:B37"/>
     <mergeCell ref="C40:C41"/>
     <mergeCell ref="D40:D41"/>
     <mergeCell ref="E40:E41"/>
@@ -2357,6 +2261,94 @@
     <mergeCell ref="D34:D35"/>
     <mergeCell ref="C36:C37"/>
     <mergeCell ref="D36:D37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2381,361 +2373,361 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="13">
+        <v>110</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="C2" s="13">
+        <v>1</v>
+      </c>
+      <c r="D2" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="C1" s="14" t="s">
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="13">
+        <v>120</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="C3" s="13">
+        <v>5</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="13">
+        <v>130</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="C4" s="13">
+        <v>8</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="13">
+        <v>220</v>
+      </c>
+      <c r="B5" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="C5" s="13">
+        <v>10</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="13">
+        <v>230</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="C6" s="13">
+        <v>20</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="13">
+        <v>240</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="C7" s="13">
+        <v>30</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="13">
+        <v>250</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="C8" s="13">
+        <v>35</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="13">
+        <v>260</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="C9" s="13">
+        <v>40</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="13">
+        <v>300</v>
+      </c>
+      <c r="B10" s="13" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="14">
-        <v>110</v>
-      </c>
-      <c r="B2" s="14" t="s">
+      <c r="C10" s="13">
+        <v>50</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="13">
+        <v>420</v>
+      </c>
+      <c r="B11" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="C2" s="14">
-        <v>1</v>
-      </c>
-      <c r="D2" s="14" t="s">
+      <c r="C11" s="13">
+        <v>60</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="13">
+        <v>430</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="C12" s="13">
+        <v>70</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="13">
+        <v>440</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="C13" s="13">
+        <v>75</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="13">
+        <v>450</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="C14" s="13">
+        <v>80</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="13">
+        <v>460</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="C15" s="13">
+        <v>85</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="13">
+        <v>500</v>
+      </c>
+      <c r="B16" s="13" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="14">
-        <v>120</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="C3" s="14">
-        <v>5</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="14">
+      <c r="C16" s="13">
+        <v>87</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="13">
+        <v>620</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="C17" s="13">
+        <v>90</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="13">
+        <v>630</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="C18" s="13">
+        <v>92</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="13">
+        <v>640</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="C19" s="13">
+        <v>95</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="13">
+        <v>720</v>
+      </c>
+      <c r="B20" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="B4" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="C4" s="14">
-        <v>8</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="14">
-        <v>220</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="C5" s="14">
-        <v>10</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="14">
-        <v>230</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="C6" s="14">
-        <v>20</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="14">
-        <v>240</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="C7" s="14">
-        <v>30</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="14">
-        <v>250</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="C8" s="14">
-        <v>35</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="14">
-        <v>260</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="C9" s="14">
-        <v>40</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="14">
-        <v>300</v>
-      </c>
-      <c r="B10" s="14" t="s">
+      <c r="C20" s="13"/>
+      <c r="D20" s="13" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="13">
+        <v>730</v>
+      </c>
+      <c r="B21" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="C10" s="14">
-        <v>50</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="14">
-        <v>420</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="C11" s="14">
-        <v>60</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="14">
-        <v>430</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="C12" s="14">
-        <v>70</v>
-      </c>
-      <c r="D12" s="14" t="s">
+      <c r="C21" s="13"/>
+      <c r="D21" s="13" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="13">
+        <v>740</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="13">
+        <v>820</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="C23" s="13">
+        <v>99</v>
+      </c>
+      <c r="D23" s="13" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="14">
-        <v>440</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="C13" s="14">
-        <v>75</v>
-      </c>
-      <c r="D13" s="14" t="s">
+    <row r="24" spans="1:4">
+      <c r="A24" s="13">
+        <v>830</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="C24" s="13">
+        <v>99</v>
+      </c>
+      <c r="D24" s="13" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="14">
-        <v>450</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="C14" s="14">
-        <v>80</v>
-      </c>
-      <c r="D14" s="14" t="s">
+    <row r="25" spans="1:4">
+      <c r="A25" s="13">
+        <v>840</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="C25" s="13">
+        <v>99</v>
+      </c>
+      <c r="D25" s="13" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="14">
-        <v>460</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="C15" s="14">
-        <v>85</v>
-      </c>
-      <c r="D15" s="14" t="s">
+    <row r="26" spans="1:4">
+      <c r="A26" s="13">
+        <v>850</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="C26" s="13">
+        <v>99</v>
+      </c>
+      <c r="D26" s="13" t="s">
         <v>150</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="14">
-        <v>500</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="C16" s="14">
-        <v>87</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="14">
-        <v>620</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="C17" s="14">
-        <v>90</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="14">
-        <v>630</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="C18" s="14">
-        <v>92</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="14">
-        <v>640</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="C19" s="14">
-        <v>95</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="14">
-        <v>720</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="14">
-        <v>730</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="14">
-        <v>740</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="14">
-        <v>820</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="C23" s="14">
-        <v>99</v>
-      </c>
-      <c r="D23" s="14" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="14">
-        <v>830</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="C24" s="14">
-        <v>99</v>
-      </c>
-      <c r="D24" s="14" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="14">
-        <v>840</v>
-      </c>
-      <c r="B25" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="C25" s="14">
-        <v>99</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="14">
-        <v>850</v>
-      </c>
-      <c r="B26" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="C26" s="14">
-        <v>99</v>
-      </c>
-      <c r="D26" s="14" t="s">
-        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -2758,181 +2750,181 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="12"/>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="13"/>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="14" t="s">
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B4" s="14" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="14" t="s">
+    <row r="5" spans="1:2">
+      <c r="A5" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="14" t="s">
+    <row r="6" spans="1:2">
+      <c r="A6" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B6" s="14" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="14" t="s">
+    <row r="7" spans="1:2">
+      <c r="A7" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B7" s="14" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="14" t="s">
+    <row r="8" spans="1:2">
+      <c r="A8" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B8" s="14" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="14" t="s">
+    <row r="9" spans="1:2">
+      <c r="A9" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B9" s="15"/>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="13" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="14" t="s">
+      <c r="B10" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="B8" s="15" t="s">
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="13" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="13" t="s">
+      <c r="B11" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="B9" s="16"/>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="14" t="s">
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B12" s="14" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="14" t="s">
+    <row r="13" spans="1:2">
+      <c r="A13" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B13" s="14" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="14" t="s">
+    <row r="14" spans="1:2">
+      <c r="A14" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B14" s="14" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="14" t="s">
+    <row r="15" spans="1:2">
+      <c r="A15" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B15" s="14" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="14" t="s">
+    <row r="16" spans="1:2">
+      <c r="A16" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B16" s="12"/>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="13" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="14" t="s">
+      <c r="B17" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="B15" s="15" t="s">
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="13" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="13" t="s">
+      <c r="B18" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="B16" s="13"/>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="14" t="s">
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B19" s="14" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="14" t="s">
+    <row r="20" spans="1:2">
+      <c r="A20" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B20" s="13" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="14" t="s">
+    <row r="21" spans="1:2">
+      <c r="A21" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B21" s="14" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="14" t="s">
+    <row r="22" spans="1:2">
+      <c r="A22" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B22" s="14" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="14" t="s">
+    <row r="23" spans="1:2">
+      <c r="A23" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B23" s="14" t="s">
         <v>118</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="B23" s="15" t="s">
-        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -2952,37 +2944,66 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B0EFCDE-C629-485E-9233-39BFE04EDEA1}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:A9"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="150">
+    <row r="1" spans="1:1">
       <c r="A1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="225">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>204</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>211</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2990,7 +3011,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62D9A01A-4634-47EA-8764-99A7BA11ABA3}">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
@@ -3002,35 +3023,35 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3038,23 +3059,23 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="C5" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3062,60 +3083,60 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="30">
       <c r="A8" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="B9" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C9" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
+        <v>189</v>
+      </c>
+      <c r="B10" t="s">
+        <v>191</v>
+      </c>
+      <c r="C10" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="16.5">
+      <c r="C11" s="16" t="s">
         <v>193</v>
       </c>
-      <c r="B10" t="s">
+    </row>
+    <row r="12" spans="1:3" ht="16.5">
+      <c r="C12" s="16" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="16.5">
+      <c r="C13" s="16" t="s">
         <v>195</v>
-      </c>
-      <c r="C10" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="16.5">
-      <c r="C11" s="17" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="16.5">
-      <c r="C12" s="17" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="16.5">
-      <c r="C13" s="17" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="16.5">
       <c r="B14">
         <v>1</v>
       </c>
-      <c r="C14" s="17" t="s">
-        <v>200</v>
+      <c r="C14" s="16" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -3123,33 +3144,33 @@
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="C16" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="16.5">
       <c r="B17" t="s">
-        <v>201</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>202</v>
+        <v>197</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="18" spans="2:3" ht="16.5">
-      <c r="C18" s="17" t="s">
-        <v>203</v>
+      <c r="C18" s="16" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="19" spans="2:3" ht="16.5">
       <c r="B19">
         <v>3</v>
       </c>
-      <c r="C19" s="17" t="s">
-        <v>204</v>
+      <c r="C19" s="16" t="s">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
